--- a/VersionRecords/Version 5.2.1.3 20170105/版本Bug和特性计划及评审表v5.2.1.3_马丁组.xlsx
+++ b/VersionRecords/Version 5.2.1.3 20170105/版本Bug和特性计划及评审表v5.2.1.3_马丁组.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="87">
   <si>
     <t>No</t>
   </si>
@@ -289,6 +289,38 @@
   </si>
   <si>
     <t>星赞</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东专享角色无法创建</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.01.05</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.01.05</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>良杰</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>马丁组</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵明基</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.01.05</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -974,6 +1006,9 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="12" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -999,9 +1034,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="12" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1391,7 +1423,7 @@
   <dimension ref="A1:W170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1537,7 +1569,7 @@
       </c>
       <c r="Q2" s="47"/>
       <c r="R2" s="47"/>
-      <c r="S2" s="88">
+      <c r="S2" s="79">
         <v>7002</v>
       </c>
       <c r="T2" s="44"/>
@@ -1546,28 +1578,60 @@
       <c r="W2" s="54"/>
     </row>
     <row r="3" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="39"/>
+      <c r="A3" s="36">
+        <v>2</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>82</v>
+      </c>
       <c r="K3" s="38"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="39"/>
+      <c r="L3" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="O3" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3" s="39" t="s">
+        <v>86</v>
+      </c>
       <c r="Q3" s="47"/>
       <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
+      <c r="S3" s="79">
+        <v>7018</v>
+      </c>
       <c r="T3" s="44"/>
       <c r="U3" s="52"/>
-      <c r="V3" s="55"/>
+      <c r="V3" s="53"/>
       <c r="W3" s="54"/>
     </row>
     <row r="4" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -5458,7 +5522,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 H5:I5 I6:I1048576 U1:U1048576 I1:I4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:I5 I6:I1048576 I1:I4 U1:U1048576 G1:G1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
@@ -5479,6 +5543,7 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1" display="http://192.168.60.60:7086/www/index.php?m=bug&amp;f=view&amp;bugID=7002"/>
+    <hyperlink ref="S3" r:id="rId2" display="http://192.168.60.60:7086/www/index.php?m=bug&amp;f=view&amp;bugID=7018"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -5657,19 +5722,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
     </row>
     <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -5707,8 +5772,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="81"/>
-      <c r="B3" s="81"/>
+      <c r="A3" s="82"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5720,8 +5785,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="84"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5733,8 +5798,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="81"/>
-      <c r="B5" s="81"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5746,8 +5811,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="83"/>
-      <c r="B6" s="83"/>
+      <c r="A6" s="84"/>
+      <c r="B6" s="84"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5759,8 +5824,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="83"/>
-      <c r="B7" s="83"/>
+      <c r="A7" s="84"/>
+      <c r="B7" s="84"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5772,8 +5837,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="83"/>
-      <c r="B8" s="83"/>
+      <c r="A8" s="84"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5785,8 +5850,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="83"/>
-      <c r="B9" s="83"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5798,8 +5863,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="82"/>
-      <c r="B10" s="82"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="83"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -5860,36 +5925,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="87"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6174,36 +6239,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="87"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6488,36 +6553,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="87"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6804,36 +6869,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="87"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
